--- a/2022-03-24.xlsx
+++ b/2022-03-24.xlsx
@@ -15,8 +15,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CGE" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Carga" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Paneles" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Bateria" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Bateria15" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Baterias" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Baterias15" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PanelesDC" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Paneles15DC" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
@@ -461,12 +461,12 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Voltaje Bateria DC</t>
+          <t>Voltaje</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Corriente Bateria DC</t>
+          <t>Corriente</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -531,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,12 +547,12 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Voltaje Bateria DC</t>
+          <t>Voltaje</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Corriente Bateria DC</t>
+          <t>Corriente</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -603,6 +603,306 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>44644.52460450232</v>
+      </c>
+      <c r="B3" t="n">
+        <v>41.86</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.24</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>44644.52477981481</v>
+      </c>
+      <c r="B4" t="n">
+        <v>41.86</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.24</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>44644.52495508102</v>
+      </c>
+      <c r="B5" t="n">
+        <v>41.86</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.24</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>44644.52513056713</v>
+      </c>
+      <c r="B6" t="n">
+        <v>41.86</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11.24</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>44644.52530564815</v>
+      </c>
+      <c r="B7" t="n">
+        <v>41.86</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="D7" t="n">
+        <v>11.24</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>44644.5254809375</v>
+      </c>
+      <c r="B8" t="n">
+        <v>41.86</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="D8" t="n">
+        <v>11.24</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>44644.52565631944</v>
+      </c>
+      <c r="B9" t="n">
+        <v>41.86</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D9" t="n">
+        <v>18.39</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>44644.52583151621</v>
+      </c>
+      <c r="B10" t="n">
+        <v>41.86</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D10" t="n">
+        <v>18.39</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>44644.5260068287</v>
+      </c>
+      <c r="B11" t="n">
+        <v>41.86</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D11" t="n">
+        <v>18.39</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>44644.52618293982</v>
+      </c>
+      <c r="B12" t="n">
+        <v>41.86</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D12" t="n">
+        <v>18.39</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>44644.52635736111</v>
+      </c>
+      <c r="B13" t="n">
+        <v>41.86</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D13" t="n">
+        <v>18.39</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>44644.52653273148</v>
+      </c>
+      <c r="B14" t="n">
+        <v>41.86</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D14" t="n">
+        <v>18.39</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>44644.52670800926</v>
+      </c>
+      <c r="B15" t="n">
+        <v>41.86</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="D15" t="n">
+        <v>13.41</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>44644.52688336805</v>
+      </c>
+      <c r="B16" t="n">
+        <v>41.86</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="D16" t="n">
+        <v>13.41</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>44644.52705907606</v>
+      </c>
+      <c r="B17" t="n">
+        <v>41.86</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="D17" t="n">
+        <v>13.41</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -633,12 +933,12 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Voltaje Bateria DC</t>
+          <t>Voltaje</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Corriente Bateria DC</t>
+          <t>Corriente</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -703,7 +1003,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -746,82 +1046,98 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>44644.47082576389</v>
+        <v>44644.52341298611</v>
       </c>
       <c r="B3" t="n">
-        <v>48.199</v>
+        <v>52.095</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>60.1</v>
+        <v>73.90000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44644.47152650463</v>
+        <v>44644.52411403936</v>
       </c>
       <c r="B4" t="n">
-        <v>47.225</v>
+        <v>49.66</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>60.3</v>
+        <v>73.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>44644.47222814815</v>
+        <v>44644.52481542824</v>
       </c>
       <c r="B5" t="n">
-        <v>47.712</v>
+        <v>49.66</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>60.2</v>
+        <v>74.59999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44644.47292859953</v>
+        <v>44644.52551678241</v>
       </c>
       <c r="B6" t="n">
-        <v>48.686</v>
+        <v>50.634</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>23.9</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>61.1</v>
+        <v>75.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44644.4736302725</v>
+        <v>44644.52621783565</v>
       </c>
       <c r="B7" t="n">
-        <v>48.686</v>
+        <v>49.66</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>61.7</v>
+        <v>75.7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>44644.52691902778</v>
+      </c>
+      <c r="B8" t="n">
+        <v>49.66</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1.8</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>75.2</v>
       </c>
     </row>
   </sheetData>
@@ -1275,78 +1591,78 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>44644.47188708333</v>
+        <v>44644.5246499537</v>
       </c>
       <c r="B3" t="n">
-        <v>220.62</v>
+        <v>209.68</v>
       </c>
       <c r="C3" t="n">
-        <v>2.89</v>
+        <v>2.31</v>
       </c>
       <c r="D3" t="n">
-        <v>-551.26</v>
+        <v>378.5</v>
       </c>
       <c r="E3" t="n">
-        <v>-320.77</v>
+        <v>-301.06</v>
       </c>
       <c r="F3" t="n">
-        <v>637.79</v>
+        <v>483.63</v>
       </c>
       <c r="G3" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="H3" t="n">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.07</v>
       </c>
       <c r="J3" t="n">
-        <v>0.86</v>
+        <v>0.78</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44644.47328951389</v>
+        <v>44644.52605243056</v>
       </c>
       <c r="B4" t="n">
-        <v>219.35</v>
+        <v>210.58</v>
       </c>
       <c r="C4" t="n">
-        <v>2.92</v>
+        <v>2.7</v>
       </c>
       <c r="D4" t="n">
-        <v>-550.83</v>
+        <v>-381.01</v>
       </c>
       <c r="E4" t="n">
-        <v>-326.79</v>
+        <v>423.28</v>
       </c>
       <c r="F4" t="n">
-        <v>640.47</v>
+        <v>569.51</v>
       </c>
       <c r="G4" t="n">
-        <v>0.83</v>
+        <v>0.29</v>
       </c>
       <c r="H4" t="n">
-        <v>0.96</v>
+        <v>0.43</v>
       </c>
       <c r="I4" t="n">
-        <v>0.79</v>
+        <v>2.91</v>
       </c>
       <c r="J4" t="n">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="K4" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>
@@ -1467,116 +1783,116 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>44644.4714047338</v>
+        <v>44644.52434297454</v>
       </c>
       <c r="B3" t="n">
-        <v>216.14</v>
+        <v>209.11</v>
       </c>
       <c r="C3" t="n">
-        <v>2.82</v>
+        <v>3.48</v>
       </c>
       <c r="D3" t="n">
-        <v>-574.13</v>
+        <v>-683.3099999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>-202.55</v>
+        <v>-249.67</v>
       </c>
       <c r="F3" t="n">
-        <v>608.8200000000001</v>
+        <v>727.49</v>
       </c>
       <c r="G3" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="H3" t="n">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="I3" t="n">
-        <v>0.82</v>
+        <v>0.71</v>
       </c>
       <c r="J3" t="n">
         <v>0.9399999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44644.47245653936</v>
+        <v>44644.52539471065</v>
       </c>
       <c r="B4" t="n">
-        <v>216.52</v>
+        <v>210.86</v>
       </c>
       <c r="C4" t="n">
-        <v>2.77</v>
+        <v>3.61</v>
       </c>
       <c r="D4" t="n">
-        <v>-570.27</v>
+        <v>-718.72</v>
       </c>
       <c r="E4" t="n">
-        <v>-185.59</v>
+        <v>-252.38</v>
       </c>
       <c r="F4" t="n">
-        <v>599.71</v>
+        <v>761.74</v>
       </c>
       <c r="G4" t="n">
         <v>0.92</v>
       </c>
       <c r="H4" t="n">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="I4" t="n">
-        <v>0.79</v>
+        <v>0.72</v>
       </c>
       <c r="J4" t="n">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>44644.47350837963</v>
+        <v>44644.52644689815</v>
       </c>
       <c r="B5" t="n">
-        <v>214.93</v>
+        <v>208.34</v>
       </c>
       <c r="C5" t="n">
-        <v>2.79</v>
+        <v>3.52</v>
       </c>
       <c r="D5" t="n">
-        <v>-567.16</v>
+        <v>-681.33</v>
       </c>
       <c r="E5" t="n">
-        <v>-194.4</v>
+        <v>-273.11</v>
       </c>
       <c r="F5" t="n">
-        <v>599.55</v>
+        <v>734.03</v>
       </c>
       <c r="G5" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="H5" t="n">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="I5" t="n">
-        <v>0.82</v>
+        <v>0.71</v>
       </c>
       <c r="J5" t="n">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="K5" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
@@ -1706,7 +2022,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1722,12 +2038,12 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Voltaje Bateria DC</t>
+          <t>Voltaje</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Corriente Bateria DC</t>
+          <t>Corriente</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -1778,6 +2094,66 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>44644.52456121528</v>
+      </c>
+      <c r="B3" t="n">
+        <v>25.88</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>44644.52561296296</v>
+      </c>
+      <c r="B4" t="n">
+        <v>26.15</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>44644.52666494213</v>
+      </c>
+      <c r="B5" t="n">
+        <v>26.25</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>0</v>
       </c>
     </row>
